--- a/listaharpa.xlsx
+++ b/listaharpa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuseppe.manzella\Desktop\Projetos Python\roteiroslides\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuseppe.manzella\Documents\GitHub\roteiro-slides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B84522B-0A24-4DDF-95E1-5F6E5F1E0074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD11E4C-EC47-4AFA-BC6B-BF5851AFF0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E257AFF8-0EB5-4845-87F5-1B57D1D6BB27}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E257AFF8-0EB5-4845-87F5-1B57D1D6BB27}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -1137,9 +1137,6 @@
     <t>HINO 367 - Espírito Consolador</t>
   </si>
   <si>
-    <t>HINO 368 - Jesus, Tudo P’Ra Mim</t>
-  </si>
-  <si>
     <t>HINO 369 - Sob As Asas de Deus</t>
   </si>
   <si>
@@ -1954,6 +1951,9 @@
   </si>
   <si>
     <t>HINO 600 - Mãos ao Trabalho</t>
+  </si>
+  <si>
+    <t>HINO 368 - Jesus, Tudo P’ra Mim</t>
   </si>
 </sst>
 </file>
@@ -2309,7 +2309,7 @@
   <dimension ref="A1:E128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2330,10 +2330,10 @@
         <v>256</v>
       </c>
       <c r="D1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2347,10 +2347,10 @@
         <v>257</v>
       </c>
       <c r="D2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2364,10 +2364,10 @@
         <v>258</v>
       </c>
       <c r="D3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2381,10 +2381,10 @@
         <v>259</v>
       </c>
       <c r="D4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2398,10 +2398,10 @@
         <v>260</v>
       </c>
       <c r="D5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2415,10 +2415,10 @@
         <v>261</v>
       </c>
       <c r="D6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2432,10 +2432,10 @@
         <v>262</v>
       </c>
       <c r="D7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2449,10 +2449,10 @@
         <v>263</v>
       </c>
       <c r="D8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2466,10 +2466,10 @@
         <v>264</v>
       </c>
       <c r="D9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2483,10 +2483,10 @@
         <v>265</v>
       </c>
       <c r="D10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2500,10 +2500,10 @@
         <v>266</v>
       </c>
       <c r="D11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2517,10 +2517,10 @@
         <v>267</v>
       </c>
       <c r="D12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2534,10 +2534,10 @@
         <v>268</v>
       </c>
       <c r="D13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E13" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2551,10 +2551,10 @@
         <v>269</v>
       </c>
       <c r="D14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2568,10 +2568,10 @@
         <v>270</v>
       </c>
       <c r="D15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2585,10 +2585,10 @@
         <v>271</v>
       </c>
       <c r="D16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2602,10 +2602,10 @@
         <v>272</v>
       </c>
       <c r="D17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2619,10 +2619,10 @@
         <v>273</v>
       </c>
       <c r="D18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2636,10 +2636,10 @@
         <v>274</v>
       </c>
       <c r="D19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E19" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2653,10 +2653,10 @@
         <v>275</v>
       </c>
       <c r="D20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E20" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2670,10 +2670,10 @@
         <v>276</v>
       </c>
       <c r="D21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E21" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2687,10 +2687,10 @@
         <v>277</v>
       </c>
       <c r="D22" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E22" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2704,10 +2704,10 @@
         <v>278</v>
       </c>
       <c r="D23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E23" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2721,10 +2721,10 @@
         <v>279</v>
       </c>
       <c r="D24" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E24" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2738,10 +2738,10 @@
         <v>280</v>
       </c>
       <c r="D25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E25" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2755,10 +2755,10 @@
         <v>281</v>
       </c>
       <c r="D26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E26" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2772,10 +2772,10 @@
         <v>282</v>
       </c>
       <c r="D27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E27" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2789,10 +2789,10 @@
         <v>283</v>
       </c>
       <c r="D28" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E28" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2806,10 +2806,10 @@
         <v>284</v>
       </c>
       <c r="D29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E29" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2823,10 +2823,10 @@
         <v>285</v>
       </c>
       <c r="D30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E30" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2840,10 +2840,10 @@
         <v>286</v>
       </c>
       <c r="D31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E31" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2857,10 +2857,10 @@
         <v>287</v>
       </c>
       <c r="D32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2874,10 +2874,10 @@
         <v>288</v>
       </c>
       <c r="D33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E33" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2891,10 +2891,10 @@
         <v>289</v>
       </c>
       <c r="D34" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E34" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2908,10 +2908,10 @@
         <v>290</v>
       </c>
       <c r="D35" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E35" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2925,10 +2925,10 @@
         <v>291</v>
       </c>
       <c r="D36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E36" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2942,10 +2942,10 @@
         <v>292</v>
       </c>
       <c r="D37" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E37" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2959,10 +2959,10 @@
         <v>293</v>
       </c>
       <c r="D38" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E38" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2976,10 +2976,10 @@
         <v>294</v>
       </c>
       <c r="D39" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E39" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2993,10 +2993,10 @@
         <v>295</v>
       </c>
       <c r="D40" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E40" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3010,10 +3010,10 @@
         <v>296</v>
       </c>
       <c r="D41" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E41" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3027,10 +3027,10 @@
         <v>297</v>
       </c>
       <c r="D42" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3044,10 +3044,10 @@
         <v>298</v>
       </c>
       <c r="D43" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E43" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3061,10 +3061,10 @@
         <v>299</v>
       </c>
       <c r="D44" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E44" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3078,10 +3078,10 @@
         <v>300</v>
       </c>
       <c r="D45" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E45" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3095,10 +3095,10 @@
         <v>301</v>
       </c>
       <c r="D46" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E46" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3112,10 +3112,10 @@
         <v>302</v>
       </c>
       <c r="D47" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E47" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3129,10 +3129,10 @@
         <v>303</v>
       </c>
       <c r="D48" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E48" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3146,10 +3146,10 @@
         <v>304</v>
       </c>
       <c r="D49" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E49" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3163,10 +3163,10 @@
         <v>305</v>
       </c>
       <c r="D50" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E50" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3180,10 +3180,10 @@
         <v>306</v>
       </c>
       <c r="D51" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E51" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3197,10 +3197,10 @@
         <v>307</v>
       </c>
       <c r="D52" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E52" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3214,10 +3214,10 @@
         <v>308</v>
       </c>
       <c r="D53" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E53" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3231,10 +3231,10 @@
         <v>309</v>
       </c>
       <c r="D54" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E54" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -3248,10 +3248,10 @@
         <v>310</v>
       </c>
       <c r="D55" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E55" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3265,10 +3265,10 @@
         <v>311</v>
       </c>
       <c r="D56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E56" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3282,10 +3282,10 @@
         <v>312</v>
       </c>
       <c r="D57" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E57" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -3299,10 +3299,10 @@
         <v>313</v>
       </c>
       <c r="D58" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E58" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3316,10 +3316,10 @@
         <v>314</v>
       </c>
       <c r="D59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E59" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3333,10 +3333,10 @@
         <v>315</v>
       </c>
       <c r="D60" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E60" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3350,10 +3350,10 @@
         <v>316</v>
       </c>
       <c r="D61" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E61" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3367,10 +3367,10 @@
         <v>317</v>
       </c>
       <c r="D62" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E62" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3384,10 +3384,10 @@
         <v>318</v>
       </c>
       <c r="D63" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E63" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -3401,10 +3401,10 @@
         <v>319</v>
       </c>
       <c r="D64" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E64" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3418,10 +3418,10 @@
         <v>320</v>
       </c>
       <c r="D65" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E65" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3435,10 +3435,10 @@
         <v>321</v>
       </c>
       <c r="D66" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E66" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3452,10 +3452,10 @@
         <v>322</v>
       </c>
       <c r="D67" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E67" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3469,10 +3469,10 @@
         <v>323</v>
       </c>
       <c r="D68" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E68" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3486,10 +3486,10 @@
         <v>324</v>
       </c>
       <c r="D69" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E69" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3503,10 +3503,10 @@
         <v>325</v>
       </c>
       <c r="D70" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E70" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3520,10 +3520,10 @@
         <v>326</v>
       </c>
       <c r="D71" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E71" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3537,10 +3537,10 @@
         <v>327</v>
       </c>
       <c r="D72" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E72" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3554,10 +3554,10 @@
         <v>328</v>
       </c>
       <c r="D73" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E73" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3571,10 +3571,10 @@
         <v>329</v>
       </c>
       <c r="D74" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E74" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3588,10 +3588,10 @@
         <v>330</v>
       </c>
       <c r="D75" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E75" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3605,10 +3605,10 @@
         <v>331</v>
       </c>
       <c r="D76" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E76" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3622,10 +3622,10 @@
         <v>332</v>
       </c>
       <c r="D77" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E77" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3639,10 +3639,10 @@
         <v>333</v>
       </c>
       <c r="D78" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E78" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3656,10 +3656,10 @@
         <v>334</v>
       </c>
       <c r="D79" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E79" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3673,10 +3673,10 @@
         <v>335</v>
       </c>
       <c r="D80" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E80" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3690,10 +3690,10 @@
         <v>336</v>
       </c>
       <c r="D81" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3707,10 +3707,10 @@
         <v>337</v>
       </c>
       <c r="D82" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E82" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3724,10 +3724,10 @@
         <v>338</v>
       </c>
       <c r="D83" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E83" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3741,10 +3741,10 @@
         <v>339</v>
       </c>
       <c r="D84" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E84" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3758,10 +3758,10 @@
         <v>340</v>
       </c>
       <c r="D85" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E85" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3775,10 +3775,10 @@
         <v>341</v>
       </c>
       <c r="D86" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E86" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3792,10 +3792,10 @@
         <v>342</v>
       </c>
       <c r="D87" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E87" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3809,10 +3809,10 @@
         <v>343</v>
       </c>
       <c r="D88" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E88" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3826,10 +3826,10 @@
         <v>344</v>
       </c>
       <c r="D89" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E89" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3843,10 +3843,10 @@
         <v>345</v>
       </c>
       <c r="D90" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E90" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3860,10 +3860,10 @@
         <v>346</v>
       </c>
       <c r="D91" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E91" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3877,10 +3877,10 @@
         <v>347</v>
       </c>
       <c r="D92" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E92" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3894,10 +3894,10 @@
         <v>348</v>
       </c>
       <c r="D93" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E93" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -3911,10 +3911,10 @@
         <v>349</v>
       </c>
       <c r="D94" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E94" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -3928,10 +3928,10 @@
         <v>350</v>
       </c>
       <c r="D95" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E95" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3945,10 +3945,10 @@
         <v>351</v>
       </c>
       <c r="D96" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E96" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3962,10 +3962,10 @@
         <v>352</v>
       </c>
       <c r="D97" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E97" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3979,10 +3979,10 @@
         <v>353</v>
       </c>
       <c r="D98" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E98" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3996,10 +3996,10 @@
         <v>354</v>
       </c>
       <c r="D99" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E99" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -4013,10 +4013,10 @@
         <v>355</v>
       </c>
       <c r="D100" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E100" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -4030,10 +4030,10 @@
         <v>356</v>
       </c>
       <c r="D101" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E101" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -4047,10 +4047,10 @@
         <v>357</v>
       </c>
       <c r="D102" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E102" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -4064,10 +4064,10 @@
         <v>358</v>
       </c>
       <c r="D103" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E103" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -4081,10 +4081,10 @@
         <v>359</v>
       </c>
       <c r="D104" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E104" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -4098,10 +4098,10 @@
         <v>360</v>
       </c>
       <c r="D105" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E105" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -4115,10 +4115,10 @@
         <v>361</v>
       </c>
       <c r="D106" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E106" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -4132,10 +4132,10 @@
         <v>362</v>
       </c>
       <c r="D107" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E107" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -4149,10 +4149,10 @@
         <v>363</v>
       </c>
       <c r="D108" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E108" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -4166,10 +4166,10 @@
         <v>364</v>
       </c>
       <c r="D109" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E109" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -4183,10 +4183,10 @@
         <v>365</v>
       </c>
       <c r="D110" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E110" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -4200,10 +4200,10 @@
         <v>366</v>
       </c>
       <c r="D111" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E111" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -4214,13 +4214,13 @@
         <v>239</v>
       </c>
       <c r="C112" t="s">
-        <v>367</v>
+        <v>639</v>
       </c>
       <c r="D112" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E112" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -4231,13 +4231,13 @@
         <v>240</v>
       </c>
       <c r="C113" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D113" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E113" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -4248,13 +4248,13 @@
         <v>241</v>
       </c>
       <c r="C114" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D114" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E114" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -4265,13 +4265,13 @@
         <v>242</v>
       </c>
       <c r="C115" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D115" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E115" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -4282,13 +4282,13 @@
         <v>243</v>
       </c>
       <c r="C116" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D116" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E116" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -4299,13 +4299,13 @@
         <v>244</v>
       </c>
       <c r="C117" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D117" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E117" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -4316,13 +4316,13 @@
         <v>245</v>
       </c>
       <c r="C118" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D118" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E118" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -4333,13 +4333,13 @@
         <v>246</v>
       </c>
       <c r="C119" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D119" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E119" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -4350,13 +4350,13 @@
         <v>247</v>
       </c>
       <c r="C120" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D120" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E120" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -4367,13 +4367,13 @@
         <v>248</v>
       </c>
       <c r="C121" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D121" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E121" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -4384,13 +4384,13 @@
         <v>249</v>
       </c>
       <c r="C122" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D122" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E122" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -4401,13 +4401,13 @@
         <v>250</v>
       </c>
       <c r="C123" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D123" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E123" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -4418,13 +4418,13 @@
         <v>251</v>
       </c>
       <c r="C124" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D124" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E124" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -4435,13 +4435,13 @@
         <v>252</v>
       </c>
       <c r="C125" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D125" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E125" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -4452,13 +4452,13 @@
         <v>253</v>
       </c>
       <c r="C126" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D126" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E126" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -4469,13 +4469,13 @@
         <v>254</v>
       </c>
       <c r="C127" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D127" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E127" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -4486,13 +4486,13 @@
         <v>255</v>
       </c>
       <c r="C128" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D128" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E128" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
